--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,15 +429,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>konverteringar</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>varumärken</t>
         </is>
@@ -449,15 +444,10 @@
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ADTR_conversions</t>
-        </is>
+      <c r="B2" t="n">
+        <v>52271226</v>
       </c>
       <c r="C2" t="n">
-        <v>52271226</v>
-      </c>
-      <c r="D2" t="n">
         <v>2311</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,40 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="ADTR_conversions"/>
+    <sheet r:id="rId2" sheetId="2" name="FRCTL_headset"/>
+    <sheet r:id="rId3" sheetId="3" name="FRCTL_chair"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Butik</t>
+  </si>
+  <si>
+    <t>Fractal Refine Fabric Dark</t>
+  </si>
+  <si>
+    <t>Fractal Refine Fabric Light</t>
+  </si>
+  <si>
+    <t>Fractal Refine Mesh Dark</t>
+  </si>
+  <si>
+    <t>Fractal Refine Mesh Light</t>
+  </si>
+  <si>
+    <t>Fractal Refine Alcantara</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>Newegg</t>
+  </si>
+  <si>
+    <t>Fractal Design Scape Dark</t>
+  </si>
+  <si>
+    <t>Fractal Design Scape Light</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>konverteringar</t>
+  </si>
+  <si>
+    <t>varumärken</t>
+  </si>
+  <si>
+    <t>2025-08-11 07:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -46,81 +110,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,10 +146,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +187,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +275,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +331,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +357,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +389,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +402,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -408,50 +425,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>datum</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>konverteringar</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>varumärken</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-08-11 07:00</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
         <v>52271226</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3">
         <v>2311</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -10,13 +10,102 @@
     <sheet r:id="rId1" sheetId="1" name="ADTR_conversions"/>
     <sheet r:id="rId2" sheetId="2" name="FRCTL_headset"/>
     <sheet r:id="rId3" sheetId="3" name="FRCTL_chair"/>
+    <sheet r:id="rId4" sheetId="4" name="SODER_stats"/>
+    <sheet r:id="rId5" sheetId="5" name="SODER_rank_fiskedrag"/>
+    <sheet r:id="rId6" sheetId="6" name="SODER_rank_fiskerullar"/>
+    <sheet r:id="rId7" sheetId="7" name="SODER_rank_fiskespon"/>
+    <sheet r:id="rId8" sheetId="8" name="SODER_rank_vaskor"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>antal_produkter</t>
+  </si>
+  <si>
+    <t>antal_egna</t>
+  </si>
+  <si>
+    <t>andel_egna</t>
+  </si>
+  <si>
+    <t>poängsumma</t>
+  </si>
+  <si>
+    <t>Söder Tackle</t>
+  </si>
+  <si>
+    <t>Eastfield Lures</t>
+  </si>
+  <si>
+    <t>Söder Sportfiske</t>
+  </si>
+  <si>
+    <t>VATN</t>
+  </si>
+  <si>
+    <t>Troutland</t>
+  </si>
+  <si>
+    <t>ANGLRS</t>
+  </si>
+  <si>
+    <t>placeringar</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10</t>
+  </si>
+  <si>
+    <t>1,2,4,5,7,8,9,13,23,25,33,52,53,55,56,58,59,60,64,74,76,84</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:28</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:29</t>
+  </si>
+  <si>
+    <t>2,6,10,11,23,53,57,61,62,74</t>
+  </si>
+  <si>
+    <t>11,62</t>
+  </si>
+  <si>
+    <t>1,3,7,8,15,16,20,24,25,33,37,38,40,52,54,58,59,66,67,71,75,76,84,88,89,91</t>
+  </si>
+  <si>
+    <t>Fiskedrag %</t>
+  </si>
+  <si>
+    <t>Fiskedrag poäng</t>
+  </si>
+  <si>
+    <t>Fiskerullar %</t>
+  </si>
+  <si>
+    <t>Fiskerullar poäng</t>
+  </si>
+  <si>
+    <t>Fiskespon %</t>
+  </si>
+  <si>
+    <t>Fiskespon poäng</t>
+  </si>
+  <si>
+    <t>Vaskor %</t>
+  </si>
+  <si>
+    <t>Vaskor poäng</t>
+  </si>
   <si>
     <t>Datum</t>
   </si>
@@ -45,13 +134,16 @@
     <t>Newegg</t>
   </si>
   <si>
+    <t>2025-08-12 09:28</t>
+  </si>
+  <si>
     <t>Fractal Design Scape Dark</t>
   </si>
   <si>
     <t>Fractal Design Scape Light</t>
   </si>
   <si>
-    <t>datum</t>
+    <t>2025-08-12 09:27</t>
   </si>
   <si>
     <t>konverteringar</t>
@@ -61,6 +153,9 @@
   </si>
   <si>
     <t>2025-08-11 07:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 07:00</t>
   </si>
 </sst>
 </file>
@@ -68,13 +163,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -110,19 +211,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -429,36 +545,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2">
         <v>52271226</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
+        <v>2311</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>52271226</v>
+      </c>
+      <c r="C3" s="2">
         <v>2311</v>
       </c>
     </row>
@@ -472,43 +599,57 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
     </row>
@@ -522,32 +663,216 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.2549</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1481</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.0196</v>
+      </c>
+      <c r="E2" s="4">
+        <v>133</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.098</v>
+      </c>
+      <c r="G2" s="4">
+        <v>671</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.2157</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -559,54 +884,680 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.2549</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1481</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.2549</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1481</v>
+      </c>
+      <c r="F3" s="4">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0196</v>
+      </c>
+      <c r="E2" s="2">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.0196</v>
+      </c>
+      <c r="E3" s="2">
+        <v>133</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.0196</v>
+      </c>
+      <c r="E4" s="2">
+        <v>133</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0196</v>
+      </c>
+      <c r="E5" s="4">
+        <v>133</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.098</v>
+      </c>
+      <c r="E2" s="2">
+        <v>671</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.098</v>
+      </c>
+      <c r="E3" s="4">
+        <v>671</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.2157</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1445</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.2157</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1445</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22</v>
+      </c>
       <c r="D4" s="3">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
+        <v>0.2157</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1445</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3">
-        <v>34</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2157</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1445</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1468,4 +1468,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA428C25-83F5-45D0-A863-1F41735171D0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58312EA-6A1E-49F2-AFCC-930689DDF5CD}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E2CE38-2D35-4117-B3BA-A13B47CCF503}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="ADTR_conversions"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>datum</t>
   </si>
@@ -110,6 +110,9 @@
     <t>Vaskor poäng</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -165,6 +168,21 @@
   </si>
   <si>
     <t>2025-08-13 09:11</t>
+  </si>
+  <si>
+    <t>2025-08-14 07:00</t>
+  </si>
+  <si>
+    <t>2025-08-15 07:00</t>
+  </si>
+  <si>
+    <t>2025-08-16 07:00</t>
+  </si>
+  <si>
+    <t>2025-08-17 07:00</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:00</t>
   </si>
 </sst>
 </file>
@@ -172,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -220,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -231,12 +243,6 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -245,6 +251,15 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,31 +563,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2">
         <v>52271226</v>
@@ -583,7 +598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>52271226</v>
@@ -594,13 +609,68 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
         <v>52296370</v>
       </c>
       <c r="C4" s="2">
         <v>2336</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
+        <v>52319255</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8">
+        <v>52352359</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2330</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8">
+        <v>52372278</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8">
+        <v>52389714</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>52404668</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2328</v>
       </c>
     </row>
   </sheetData>
@@ -619,32 +689,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -655,10 +725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -669,10 +739,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -697,44 +767,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -754,10 +824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -785,21 +855,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -864,30 +934,76 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.2549</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1473</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>131</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.098</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>671</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.2157</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>1441</v>
       </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -901,25 +1017,25 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -995,38 +1111,38 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>26</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.2549</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1473</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>22</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1049,18 +1165,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1143,34 +1259,34 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>131</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1193,18 +1309,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1287,34 +1403,34 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.098</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>671</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1337,18 +1453,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1431,34 +1547,34 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.2157</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1441</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1692,13 +1808,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA428C25-83F5-45D0-A863-1F41735171D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3753C570-660B-4DA0-9C73-54FF84BC096A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58312EA-6A1E-49F2-AFCC-930689DDF5CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0EC0A20-D796-4081-870E-C23D63A3BC8F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E2CE38-2D35-4117-B3BA-A13B47CCF503}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC41610B-11F3-4F8B-B147-58F02D836CE9}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1927,4 +1927,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B86F384-83D4-4365-A1D2-A3D3D8FB945F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E9D8356-470D-4C48-A1FE-1CB2576E95BA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{706771AD-E965-489D-AB25-7D7FB55D4163}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,19 @@
         <v>2328</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-19 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52443020</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,7 +633,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +723,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,7 +752,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +858,43 @@
       </c>
       <c r="G3" s="2" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-19 05:15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2090,9 +2158,6 @@
       <c r="U2" t="n">
         <v>135</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2160,9 +2225,6 @@
       <c r="U3" t="n">
         <v>132</v>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2230,9 +2292,6 @@
       <c r="U4" t="n">
         <v>113</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2300,9 +2359,6 @@
       <c r="U5" t="n">
         <v>104</v>
       </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2370,9 +2426,6 @@
       <c r="U6" t="n">
         <v>110</v>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2440,9 +2493,6 @@
       <c r="U7" t="n">
         <v>114</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2510,9 +2560,6 @@
       <c r="U8" t="n">
         <v>112</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2580,9 +2627,6 @@
       <c r="U9" t="n">
         <v>99</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2650,9 +2694,6 @@
       <c r="U10" t="n">
         <v>106</v>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2720,9 +2761,6 @@
       <c r="U11" t="n">
         <v>100</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2790,9 +2828,6 @@
       <c r="U12" t="n">
         <v>131</v>
       </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2860,9 +2895,6 @@
       <c r="U13" t="n">
         <v>118</v>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2933,7 +2965,6 @@
       <c r="V14" t="n">
         <v>-13</v>
       </c>
-      <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
         <v>-13</v>
       </c>
@@ -3007,7 +3038,6 @@
       <c r="V15" t="n">
         <v>-14</v>
       </c>
-      <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
         <v>-14</v>
       </c>
@@ -3081,7 +3111,6 @@
       <c r="V16" t="n">
         <v>-4</v>
       </c>
-      <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
         <v>-4</v>
       </c>
@@ -3155,7 +3184,6 @@
       <c r="V17" t="n">
         <v>-1</v>
       </c>
-      <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
         <v>-1</v>
       </c>
@@ -3229,7 +3257,6 @@
       <c r="V18" t="n">
         <v>-13</v>
       </c>
-      <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
         <v>-13</v>
       </c>
@@ -3303,7 +3330,6 @@
       <c r="V19" t="n">
         <v>-20</v>
       </c>
-      <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
         <v>-21</v>
       </c>
@@ -3377,7 +3403,6 @@
       <c r="V20" t="n">
         <v>-18</v>
       </c>
-      <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
         <v>-18</v>
       </c>
@@ -3451,7 +3476,6 @@
       <c r="V21" t="n">
         <v>17</v>
       </c>
-      <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
         <v>17</v>
       </c>
@@ -3525,7 +3549,6 @@
       <c r="V22" t="n">
         <v>-7</v>
       </c>
-      <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
         <v>-7</v>
       </c>
@@ -3599,7 +3622,6 @@
       <c r="V23" t="n">
         <v>6</v>
       </c>
-      <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
         <v>6</v>
       </c>
@@ -3673,7 +3695,6 @@
       <c r="V24" t="n">
         <v>-6</v>
       </c>
-      <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
         <v>-6</v>
       </c>
@@ -3747,7 +3768,6 @@
       <c r="V25" t="n">
         <v>21</v>
       </c>
-      <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
         <v>21</v>
       </c>
@@ -3821,7 +3841,6 @@
       <c r="V26" t="n">
         <v>2</v>
       </c>
-      <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
         <v>2</v>
       </c>
@@ -3895,7 +3914,6 @@
       <c r="V27" t="n">
         <v>-7</v>
       </c>
-      <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
         <v>-7</v>
       </c>
@@ -3969,7 +3987,6 @@
       <c r="V28" t="n">
         <v>-6</v>
       </c>
-      <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
         <v>-6</v>
       </c>
@@ -4043,7 +4060,6 @@
       <c r="V29" t="n">
         <v>-7</v>
       </c>
-      <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
         <v>-7</v>
       </c>
@@ -4117,7 +4133,6 @@
       <c r="V30" t="n">
         <v>-5</v>
       </c>
-      <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
         <v>-5</v>
       </c>
@@ -4267,7 +4282,6 @@
       <c r="V32" t="n">
         <v>-1</v>
       </c>
-      <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
         <v>-1</v>
       </c>
@@ -4341,7 +4355,6 @@
       <c r="V33" t="n">
         <v>-21</v>
       </c>
-      <c r="W33" t="inlineStr"/>
       <c r="X33" t="n">
         <v>-21</v>
       </c>
@@ -4415,7 +4428,6 @@
       <c r="V34" t="n">
         <v>-5</v>
       </c>
-      <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
         <v>-5</v>
       </c>
@@ -4489,7 +4501,6 @@
       <c r="V35" t="n">
         <v>-8</v>
       </c>
-      <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
         <v>-8</v>
       </c>
@@ -4563,7 +4574,6 @@
       <c r="V36" t="n">
         <v>-5</v>
       </c>
-      <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
         <v>-5</v>
       </c>
@@ -4637,7 +4647,6 @@
       <c r="V37" t="n">
         <v>-25</v>
       </c>
-      <c r="W37" t="inlineStr"/>
       <c r="X37" t="n">
         <v>-25</v>
       </c>
@@ -4711,7 +4720,6 @@
       <c r="V38" t="n">
         <v>-12</v>
       </c>
-      <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
         <v>-12</v>
       </c>
@@ -4785,7 +4793,6 @@
       <c r="V39" t="n">
         <v>-5</v>
       </c>
-      <c r="W39" t="inlineStr"/>
       <c r="X39" t="n">
         <v>-5</v>
       </c>
@@ -4859,7 +4866,6 @@
       <c r="V40" t="n">
         <v>-5</v>
       </c>
-      <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
         <v>-6</v>
       </c>
@@ -4933,7 +4939,6 @@
       <c r="V41" t="n">
         <v>-12</v>
       </c>
-      <c r="W41" t="inlineStr"/>
       <c r="X41" t="n">
         <v>-12</v>
       </c>
@@ -5007,7 +5012,6 @@
       <c r="V42" t="n">
         <v>-10</v>
       </c>
-      <c r="W42" t="inlineStr"/>
       <c r="X42" t="n">
         <v>-10</v>
       </c>
@@ -5081,7 +5085,6 @@
       <c r="V43" t="n">
         <v>-9</v>
       </c>
-      <c r="W43" t="inlineStr"/>
       <c r="X43" t="n">
         <v>-9</v>
       </c>
@@ -5155,7 +5158,6 @@
       <c r="V44" t="n">
         <v>13</v>
       </c>
-      <c r="W44" t="inlineStr"/>
       <c r="X44" t="n">
         <v>13</v>
       </c>
@@ -5229,7 +5231,6 @@
       <c r="V45" t="n">
         <v>13</v>
       </c>
-      <c r="W45" t="inlineStr"/>
       <c r="X45" t="n">
         <v>13</v>
       </c>
@@ -5303,7 +5304,6 @@
       <c r="V46" t="n">
         <v>2</v>
       </c>
-      <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
         <v>2</v>
       </c>
@@ -5377,7 +5377,6 @@
       <c r="V47" t="n">
         <v>-7</v>
       </c>
-      <c r="W47" t="inlineStr"/>
       <c r="X47" t="n">
         <v>-7</v>
       </c>
@@ -5451,7 +5450,6 @@
       <c r="V48" t="n">
         <v>-3</v>
       </c>
-      <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
         <v>-3</v>
       </c>
@@ -5525,7 +5523,6 @@
       <c r="V49" t="n">
         <v>10</v>
       </c>
-      <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
         <v>10</v>
       </c>
@@ -5599,7 +5596,6 @@
       <c r="V50" t="n">
         <v>8</v>
       </c>
-      <c r="W50" t="inlineStr"/>
       <c r="X50" t="n">
         <v>8</v>
       </c>
@@ -5673,7 +5669,6 @@
       <c r="V51" t="n">
         <v>13</v>
       </c>
-      <c r="W51" t="inlineStr"/>
       <c r="X51" t="n">
         <v>13</v>
       </c>
@@ -5823,7 +5818,6 @@
       <c r="V53" t="n">
         <v>73</v>
       </c>
-      <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
         <v>73</v>
       </c>
@@ -5897,7 +5891,6 @@
       <c r="V54" t="n">
         <v>87</v>
       </c>
-      <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
         <v>87</v>
       </c>
@@ -5971,7 +5964,6 @@
       <c r="V55" t="n">
         <v>82</v>
       </c>
-      <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
         <v>82</v>
       </c>
@@ -6045,7 +6037,6 @@
       <c r="V56" t="n">
         <v>36</v>
       </c>
-      <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
         <v>36</v>
       </c>
@@ -6119,7 +6110,6 @@
       <c r="V57" t="n">
         <v>28</v>
       </c>
-      <c r="W57" t="inlineStr"/>
       <c r="X57" t="n">
         <v>28</v>
       </c>
@@ -6193,7 +6183,6 @@
       <c r="V58" t="n">
         <v>46</v>
       </c>
-      <c r="W58" t="inlineStr"/>
       <c r="X58" t="n">
         <v>46</v>
       </c>
@@ -6267,7 +6256,6 @@
       <c r="V59" t="n">
         <v>30</v>
       </c>
-      <c r="W59" t="inlineStr"/>
       <c r="X59" t="n">
         <v>30</v>
       </c>
@@ -6341,7 +6329,6 @@
       <c r="V60" t="n">
         <v>33</v>
       </c>
-      <c r="W60" t="inlineStr"/>
       <c r="X60" t="n">
         <v>33</v>
       </c>
@@ -6415,7 +6402,6 @@
       <c r="V61" t="n">
         <v>28</v>
       </c>
-      <c r="W61" t="inlineStr"/>
       <c r="X61" t="n">
         <v>28</v>
       </c>
@@ -6489,7 +6475,6 @@
       <c r="V62" t="n">
         <v>10</v>
       </c>
-      <c r="W62" t="inlineStr"/>
       <c r="X62" t="n">
         <v>10</v>
       </c>
@@ -6563,7 +6548,6 @@
       <c r="V63" t="n">
         <v>-10</v>
       </c>
-      <c r="W63" t="inlineStr"/>
       <c r="X63" t="n">
         <v>-10</v>
       </c>
@@ -6637,7 +6621,6 @@
       <c r="V64" t="n">
         <v>-29</v>
       </c>
-      <c r="W64" t="inlineStr"/>
       <c r="X64" t="n">
         <v>-29</v>
       </c>
@@ -6711,7 +6694,6 @@
       <c r="V65" t="n">
         <v>-46</v>
       </c>
-      <c r="W65" t="inlineStr"/>
       <c r="X65" t="n">
         <v>-46</v>
       </c>
@@ -6785,7 +6767,6 @@
       <c r="V66" t="n">
         <v>-50</v>
       </c>
-      <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
         <v>-50</v>
       </c>
@@ -6859,7 +6840,6 @@
       <c r="V67" t="n">
         <v>-57</v>
       </c>
-      <c r="W67" t="inlineStr"/>
       <c r="X67" t="n">
         <v>-57</v>
       </c>
@@ -6933,7 +6913,6 @@
       <c r="V68" t="n">
         <v>-46</v>
       </c>
-      <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
         <v>-46</v>
       </c>
@@ -7007,7 +6986,6 @@
       <c r="V69" t="n">
         <v>-27</v>
       </c>
-      <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
         <v>-27</v>
       </c>
@@ -7081,7 +7059,6 @@
       <c r="V70" t="n">
         <v>-47</v>
       </c>
-      <c r="W70" t="inlineStr"/>
       <c r="X70" t="n">
         <v>-47</v>
       </c>
@@ -7155,7 +7132,6 @@
       <c r="V71" t="n">
         <v>-36</v>
       </c>
-      <c r="W71" t="inlineStr"/>
       <c r="X71" t="n">
         <v>-36</v>
       </c>
@@ -7229,7 +7205,6 @@
       <c r="V72" t="n">
         <v>-44</v>
       </c>
-      <c r="W72" t="inlineStr"/>
       <c r="X72" t="n">
         <v>-44</v>
       </c>
@@ -7303,7 +7278,6 @@
       <c r="V73" t="n">
         <v>-46</v>
       </c>
-      <c r="W73" t="inlineStr"/>
       <c r="X73" t="n">
         <v>-46</v>
       </c>
@@ -7377,7 +7351,6 @@
       <c r="V74" t="n">
         <v>-2</v>
       </c>
-      <c r="W74" t="inlineStr"/>
       <c r="X74" t="n">
         <v>-2</v>
       </c>
@@ -7451,7 +7424,6 @@
       <c r="V75" t="n">
         <v>50</v>
       </c>
-      <c r="W75" t="inlineStr"/>
       <c r="X75" t="n">
         <v>50</v>
       </c>
@@ -7525,7 +7497,6 @@
       <c r="V76" t="n">
         <v>47</v>
       </c>
-      <c r="W76" t="inlineStr"/>
       <c r="X76" t="n">
         <v>47</v>
       </c>
@@ -7599,7 +7570,6 @@
       <c r="V77" t="n">
         <v>56</v>
       </c>
-      <c r="W77" t="inlineStr"/>
       <c r="X77" t="n">
         <v>56</v>
       </c>
@@ -7673,7 +7643,6 @@
       <c r="V78" t="n">
         <v>38</v>
       </c>
-      <c r="W78" t="inlineStr"/>
       <c r="X78" t="n">
         <v>38</v>
       </c>
@@ -7747,7 +7716,6 @@
       <c r="V79" t="n">
         <v>72</v>
       </c>
-      <c r="W79" t="inlineStr"/>
       <c r="X79" t="n">
         <v>72</v>
       </c>
@@ -7821,7 +7789,6 @@
       <c r="V80" t="n">
         <v>88</v>
       </c>
-      <c r="W80" t="inlineStr"/>
       <c r="X80" t="n">
         <v>88</v>
       </c>
@@ -7895,7 +7862,6 @@
       <c r="V81" t="n">
         <v>30</v>
       </c>
-      <c r="W81" t="inlineStr"/>
       <c r="X81" t="n">
         <v>30</v>
       </c>
@@ -7969,7 +7935,6 @@
       <c r="V82" t="n">
         <v>58</v>
       </c>
-      <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
         <v>58</v>
       </c>
@@ -8043,7 +8008,6 @@
       <c r="V83" t="n">
         <v>93</v>
       </c>
-      <c r="W83" t="inlineStr"/>
       <c r="X83" t="n">
         <v>93</v>
       </c>
@@ -8117,7 +8081,6 @@
       <c r="V84" t="n">
         <v>151</v>
       </c>
-      <c r="W84" t="inlineStr"/>
       <c r="X84" t="n">
         <v>151</v>
       </c>
@@ -8191,7 +8154,6 @@
       <c r="V85" t="n">
         <v>272</v>
       </c>
-      <c r="W85" t="inlineStr"/>
       <c r="X85" t="n">
         <v>272</v>
       </c>
@@ -8265,7 +8227,6 @@
       <c r="V86" t="n">
         <v>111</v>
       </c>
-      <c r="W86" t="inlineStr"/>
       <c r="X86" t="n">
         <v>111</v>
       </c>
@@ -8339,7 +8300,6 @@
       <c r="V87" t="n">
         <v>64</v>
       </c>
-      <c r="W87" t="inlineStr"/>
       <c r="X87" t="n">
         <v>64</v>
       </c>
@@ -8413,7 +8373,6 @@
       <c r="V88" t="n">
         <v>79</v>
       </c>
-      <c r="W88" t="inlineStr"/>
       <c r="X88" t="n">
         <v>79</v>
       </c>
@@ -8487,7 +8446,6 @@
       <c r="V89" t="n">
         <v>65</v>
       </c>
-      <c r="W89" t="inlineStr"/>
       <c r="X89" t="n">
         <v>65</v>
       </c>
@@ -8561,7 +8519,6 @@
       <c r="V90" t="n">
         <v>78</v>
       </c>
-      <c r="W90" t="inlineStr"/>
       <c r="X90" t="n">
         <v>78</v>
       </c>
@@ -8635,7 +8592,6 @@
       <c r="V91" t="n">
         <v>92</v>
       </c>
-      <c r="W91" t="inlineStr"/>
       <c r="X91" t="n">
         <v>92</v>
       </c>
@@ -8709,7 +8665,6 @@
       <c r="V92" t="n">
         <v>61</v>
       </c>
-      <c r="W92" t="inlineStr"/>
       <c r="X92" t="n">
         <v>61</v>
       </c>
@@ -8783,7 +8738,6 @@
       <c r="V93" t="n">
         <v>85</v>
       </c>
-      <c r="W93" t="inlineStr"/>
       <c r="X93" t="n">
         <v>85</v>
       </c>
@@ -8857,7 +8811,6 @@
       <c r="V94" t="n">
         <v>73</v>
       </c>
-      <c r="W94" t="inlineStr"/>
       <c r="X94" t="n">
         <v>73</v>
       </c>
@@ -8931,7 +8884,6 @@
       <c r="V95" t="n">
         <v>29</v>
       </c>
-      <c r="W95" t="inlineStr"/>
       <c r="X95" t="n">
         <v>29</v>
       </c>
@@ -9005,7 +8957,6 @@
       <c r="V96" t="n">
         <v>9</v>
       </c>
-      <c r="W96" t="inlineStr"/>
       <c r="X96" t="n">
         <v>9</v>
       </c>
@@ -9079,7 +9030,6 @@
       <c r="V97" t="n">
         <v>-28</v>
       </c>
-      <c r="W97" t="inlineStr"/>
       <c r="X97" t="n">
         <v>-28</v>
       </c>
@@ -9153,7 +9103,6 @@
       <c r="V98" t="n">
         <v>-15</v>
       </c>
-      <c r="W98" t="inlineStr"/>
       <c r="X98" t="n">
         <v>-15</v>
       </c>
@@ -9227,7 +9176,6 @@
       <c r="V99" t="n">
         <v>-8</v>
       </c>
-      <c r="W99" t="inlineStr"/>
       <c r="X99" t="n">
         <v>-8</v>
       </c>
@@ -9301,7 +9249,6 @@
       <c r="V100" t="n">
         <v>9</v>
       </c>
-      <c r="W100" t="inlineStr"/>
       <c r="X100" t="n">
         <v>9</v>
       </c>
@@ -9375,7 +9322,6 @@
       <c r="V101" t="n">
         <v>-2</v>
       </c>
-      <c r="W101" t="inlineStr"/>
       <c r="X101" t="n">
         <v>-2</v>
       </c>
@@ -9449,7 +9395,6 @@
       <c r="V102" t="n">
         <v>-2</v>
       </c>
-      <c r="W102" t="inlineStr"/>
       <c r="X102" t="n">
         <v>-2</v>
       </c>
@@ -9523,7 +9468,6 @@
       <c r="V103" t="n">
         <v>9</v>
       </c>
-      <c r="W103" t="inlineStr"/>
       <c r="X103" t="n">
         <v>7</v>
       </c>
@@ -9597,7 +9541,6 @@
       <c r="V104" t="n">
         <v>-5</v>
       </c>
-      <c r="W104" t="inlineStr"/>
       <c r="X104" t="n">
         <v>-6</v>
       </c>
@@ -9671,7 +9614,6 @@
       <c r="V105" t="n">
         <v>-5</v>
       </c>
-      <c r="W105" t="inlineStr"/>
       <c r="X105" t="n">
         <v>-9</v>
       </c>
@@ -9745,7 +9687,6 @@
       <c r="V106" t="n">
         <v>29</v>
       </c>
-      <c r="W106" t="inlineStr"/>
       <c r="X106" t="n">
         <v>19</v>
       </c>
@@ -9819,7 +9760,6 @@
       <c r="V107" t="n">
         <v>29</v>
       </c>
-      <c r="W107" t="inlineStr"/>
       <c r="X107" t="n">
         <v>22</v>
       </c>
@@ -9893,7 +9833,6 @@
       <c r="V108" t="n">
         <v>37</v>
       </c>
-      <c r="W108" t="inlineStr"/>
       <c r="X108" t="n">
         <v>31</v>
       </c>
@@ -9967,7 +9906,6 @@
       <c r="V109" t="n">
         <v>48</v>
       </c>
-      <c r="W109" t="inlineStr"/>
       <c r="X109" t="n">
         <v>42</v>
       </c>
@@ -10041,7 +9979,6 @@
       <c r="V110" t="n">
         <v>44</v>
       </c>
-      <c r="W110" t="inlineStr"/>
       <c r="X110" t="n">
         <v>38</v>
       </c>
@@ -10115,7 +10052,6 @@
       <c r="V111" t="n">
         <v>27</v>
       </c>
-      <c r="W111" t="inlineStr"/>
       <c r="X111" t="n">
         <v>23</v>
       </c>
@@ -10189,7 +10125,6 @@
       <c r="V112" t="n">
         <v>17</v>
       </c>
-      <c r="W112" t="inlineStr"/>
       <c r="X112" t="n">
         <v>14</v>
       </c>
@@ -10263,7 +10198,6 @@
       <c r="V113" t="n">
         <v>25</v>
       </c>
-      <c r="W113" t="inlineStr"/>
       <c r="X113" t="n">
         <v>22</v>
       </c>
@@ -10337,7 +10271,6 @@
       <c r="V114" t="n">
         <v>48</v>
       </c>
-      <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
         <v>43</v>
       </c>
@@ -10573,237 +10506,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3F1C4F-AE33-49E4-9A86-B130B572D64A}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77ECCE0A-C9A9-411A-99AB-4D30AB4194D7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F24427-CC98-4F89-B4EC-D6B91C42583A}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -2395,4 +2395,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7036F6C6-A743-492A-AAFF-03E4B16201B8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49B87A9-AB46-4250-AD66-FA31666D67FF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C24C334-112E-4A36-9559-DCC679911F8A}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -665,6 +665,22 @@
       </c>
       <c r="D11" t="n">
         <v>5072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:15</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52466153</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18061</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +995,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1216,37 @@
         <v>1407</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="G7" t="n">
+        <v>683</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1211,7 +1258,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -1498,6 +1545,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:25</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1568</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1,2,7,8,16,19,20,25,26,27,34,36,39,41,52,53,58,59,67,70,71,76,77,78,85,87,90,92</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1509,7 +1598,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -1796,6 +1885,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:25</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>12,46,63,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1807,7 +1938,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -2094,6 +2225,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E7" t="n">
+        <v>683</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2,5,10,11,18,53,56,61,62,69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2105,7 +2278,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -2392,240 +2565,49 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-21 07:26</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1363</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1,2,4,5,7,8,15,17,30,37,45,52,53,55,56,58,59,66,68,81,88,96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7036F6C6-A743-492A-AAFF-03E4B16201B8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49B87A9-AB46-4250-AD66-FA31666D67FF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C24C334-112E-4A36-9559-DCC679911F8A}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -681,6 +681,22 @@
       </c>
       <c r="D12" t="n">
         <v>18061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:15</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52483224</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2332</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17071</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1011,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +1263,37 @@
         <v>1363</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E8" t="n">
+        <v>194</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G8" t="n">
+        <v>726</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,7 +1305,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -1587,6 +1634,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1566</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1,2,7,8,13,19,20,25,28,32,33,36,38,40,52,53,58,59,64,70,71,76,79,83,84,87,89,91</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1598,7 +1687,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -1927,6 +2016,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E8" t="n">
+        <v>194</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12,46,63,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1938,7 +2069,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -2267,6 +2398,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="E8" t="n">
+        <v>726</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2,5,10,13,21,51,53,56,61,64,72,102</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2278,7 +2451,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:L1"/>
@@ -2607,6 +2780,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-22 07:25</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1319</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1,2,5,6,7,8,17,18,39,42,48,52,53,56,57,58,59,68,69,90,93,99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -498,7 +498,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,22 @@
       </c>
       <c r="D13" s="1" t="n">
         <v>17071</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>52505894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2329</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22670</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +798,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,6 +830,16 @@
       </c>
       <c r="B2" s="1" t="n">
         <v>1935</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-23 05:16</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1927</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1184,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,6 +1467,37 @@
         <v>1319</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E9" t="n">
+        <v>190</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="G9" t="n">
+        <v>663</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1961</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1452,7 +1509,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,6 +1880,48 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1562</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1,2,7,8,13,19,20,25,28,31,34,37,38,41,52,53,58,59,64,70,71,76,79,82,85,88,89,92</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1834,7 +1933,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,6 +2304,48 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E9" t="n">
+        <v>190</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>12,48,63,99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2216,7 +2357,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2587,6 +2728,48 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="E9" t="n">
+        <v>663</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2,6,12,15,21,53,57,63,66,72</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2598,7 +2781,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2969,240 +3152,49 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-23 07:14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1961</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1,2,4,6,7,8,17,18,40,44,52,53,55,57,58,59,68,69,91,95</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B23C0CB-8C77-4171-A4E2-04E825E04810}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E3F790-0300-413E-B13B-6B7960C073E8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85963FD-36C3-4DFE-BE42-20165D774D21}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -498,7 +498,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,6 +736,22 @@
       </c>
       <c r="D14" t="n">
         <v>22670</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>52520038</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14144</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +814,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,6 +856,16 @@
       </c>
       <c r="B3" t="n">
         <v>1927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-24 05:17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1210,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +1524,37 @@
         <v>1256</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1629</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E10" t="n">
+        <v>192</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G10" t="n">
+        <v>724</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1509,7 +1566,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,6 +1979,48 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1,2,7,8,10,19,20,26,27,29,35,37,40,41,46,52,53,58,59,61,70,71,77,78,80,86,88,91,92,97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1933,7 +2032,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,6 +2445,48 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E10" t="n">
+        <v>192</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>12,47,63,98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2357,7 +2498,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,6 +2911,48 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="E10" t="n">
+        <v>724</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2,6,11,15,20,49,53,57,62,66,71,100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2781,7 +2964,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3194,6 +3377,48 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-24 07:15</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1313</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1,2,4,6,7,9,17,22,34,45,49,52,53,55,57,58,60,68,73,85,96,100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADTR_conversions" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,47 +22,53 @@
     <definedName name="IQ_CQ">5000</definedName>
     <definedName name="IQ_CY">10000</definedName>
     <definedName name="IQ_DAILY">500000</definedName>
-    <definedName name="IQ_DNTM" hidden="1">700000</definedName>
+    <definedName name="IQ_DNTM">700000</definedName>
     <definedName name="IQ_FH">100000</definedName>
     <definedName name="IQ_FQ">500</definedName>
-    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
-    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
-    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
-    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
-    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
-    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
-    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
-    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
-    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FWD_CY">10001</definedName>
+    <definedName name="IQ_FWD_CY1">10002</definedName>
+    <definedName name="IQ_FWD_CY2">10003</definedName>
+    <definedName name="IQ_FWD_FY">1001</definedName>
+    <definedName name="IQ_FWD_FY1">1002</definedName>
+    <definedName name="IQ_FWD_FY2">1003</definedName>
+    <definedName name="IQ_FWD_Q">501</definedName>
+    <definedName name="IQ_FWD_Q1">502</definedName>
+    <definedName name="IQ_FWD_Q2">503</definedName>
     <definedName name="IQ_FY">1000</definedName>
-    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
-    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LATESTK">1000</definedName>
+    <definedName name="IQ_LATESTQ">500</definedName>
     <definedName name="IQ_LTM">2000</definedName>
-    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_LTMMONTH">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
-    <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">"02/17/2025 14:07:18"</definedName>
+    <definedName name="IQ_MTD">800000</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_">"02/17/2025 14:07:18"</definedName>
     <definedName name="IQ_NTM">6000</definedName>
-    <definedName name="IQ_QTD" hidden="1">750000</definedName>
-    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_QTD">750000</definedName>
+    <definedName name="IQ_TODAY">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
-    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="IQ_YTDMONTH">130000</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -113,24 +119,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -214,10 +241,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -255,71 +282,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,7 +374,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -370,11 +397,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -383,13 +410,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -399,7 +426,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -408,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -417,7 +444,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -425,10 +452,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -504,253 +531,255 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="4"/>
+    <col width="20.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Konverteringar</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Varumärken</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Diff</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>52271226</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>2311</v>
       </c>
-      <c r="D2" s="1" t="n"/>
+      <c r="D2" s="6" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 07:00</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>52271226</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>2311</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 09:11</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>52296370</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>2336</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="6" t="n">
         <v>25144</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-14 07:00</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>52319255</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>2332</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="6" t="n">
         <v>22885</v>
       </c>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-15 07:00</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>52352359</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>2330</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="6" t="n">
         <v>33104</v>
       </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-16 07:00</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>52372278</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>2328</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="6" t="n">
         <v>19919</v>
       </c>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-17 07:00</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>52389714</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>2328</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="6" t="n">
         <v>17436</v>
       </c>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 07:00</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="6" t="n">
         <v>52404668</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="6" t="n">
         <v>2328</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="6" t="n">
         <v>14954</v>
       </c>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:33</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="6" t="n">
         <v>52443020</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="6" t="n">
         <v>2328</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="6" t="n">
         <v>38352</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="6" t="n">
         <v>52448092</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="6" t="n">
         <v>2327</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="6" t="n">
         <v>5072</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:15</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="6" t="n">
         <v>52466153</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="6" t="n">
         <v>2328</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="6" t="n">
         <v>18061</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:15</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="6" t="n">
         <v>52483224</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="6" t="n">
         <v>2332</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="6" t="n">
         <v>17071</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>52505894</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>2329</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>22670</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>52520038</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>2328</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>14144</v>
       </c>
     </row>
@@ -762,7 +791,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C2"/>
@@ -772,39 +801,44 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Scape Dark rank</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Scape Light rank</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 22:57</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -816,55 +850,55 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>AOV</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 13:15</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>1935</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 05:16</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>1927</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 05:17</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>1939</v>
       </c>
     </row>
@@ -879,123 +913,147 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="23.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="3" max="4"/>
+    <col width="23.29071428571428" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="24.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="24.43357142857143" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Butik</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Fractal Design Scape Dark</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Fractal Design Scape Light</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 09:27</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 09:35</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 05:15</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D5" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 22:58</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-24 10:41</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1010,193 +1068,220 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="24" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="24.109375" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="23.6640625" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="23.88671875" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="22.44140625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="26.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="24.005" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="24.14785714285714" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.71928571428571" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="23.86214285714286" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="22.43357142857143" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Butik</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Fractal Refine Fabric Dark</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Fractal Refine Fabric Light</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Fractal Refine Mesh Dark</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Fractal Refine Mesh Light</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Fractal Refine Alcantara</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-11 07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="6" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 09:28</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="6" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 05:15</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="6" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 05:16</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="6" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 22:54</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Newegg</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-24 10:43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1216,342 +1301,342 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.88671875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="16" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="12" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="15.88671875" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="15.44140625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="13.109375" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="19.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="15.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="15.43357142857143" bestFit="1" customWidth="1" style="9" min="8" max="8"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Fiskedrag %</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Fiskedrag poäng</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Fiskerullar %</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Fiskerullar poäng</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Fiskespon %</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Fiskespon poäng</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Vaskor %</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Vaskor poäng</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="7" t="n">
         <v>0.2549</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>1481</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="6" t="n">
         <v>671</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="6" t="n">
         <v>1445</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="7" t="n">
         <v>0.2549</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>1473</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="6" t="n">
         <v>671</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="6" t="n">
         <v>1441</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>1540</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>198</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="6" t="n">
         <v>1435</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>1554</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>186</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="6" t="n">
         <v>736</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="6" t="n">
         <v>1407</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>1554</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>186</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="6" t="n">
         <v>736</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="6" t="n">
         <v>1407</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>1568</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>194</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="6" t="n">
         <v>683</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="6" t="n">
         <v>1363</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>1566</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>194</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="6" t="n">
         <v>726</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="6" t="n">
         <v>1319</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="8" t="n">
         <v>0.2745</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>1562</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="8" t="n">
         <v>0.098</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>663</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="8" t="n">
         <v>0.1961</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="3" t="n">
         <v>1256</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="8" t="n">
         <v>0.2941</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>1629</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="8" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>724</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="8" t="n">
         <v>0.2157</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="3" t="n">
         <v>1313</v>
       </c>
     </row>
@@ -1572,450 +1657,457 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="5" max="11"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.2549</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>1481</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>1,3,7,8,15,16,20,24,25,33,37,38,40,52,54,58,59,66,67,71,75,76,84,88,89,91</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.2549</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>1473</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>1,3,7,8,15,18,21,24,28,32,36,37,41,52,54,58,59,66,69,72,75,79,83,87,88,92</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>1540</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,24,25,26,30,34,37,38,46,52,53,58,59,69,70,75,76,77,81,85,88,89,97</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>1554</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,20,25,26,29,35,36,39,43,52,53,58,59,69,70,71,76,77,80,86,87,90,94</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>1554</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,18,19,20,25,26,29,35,36,39,43,52,53,58,59,69,70,71,76,77,80,86,87,90,94</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:25</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>1568</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,16,19,20,25,26,27,34,36,39,41,52,53,58,59,67,70,71,76,77,78,85,87,90,92</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>1566</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,13,19,20,25,28,32,33,36,38,40,52,53,58,59,64,70,71,76,79,83,84,87,89,91</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.2745</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>1562</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,13,19,20,25,28,31,34,37,38,41,52,53,58,59,64,70,71,76,79,82,85,88,89,92</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.2941</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>1629</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>1,2,7,8,10,19,20,26,27,29,35,37,40,41,46,52,53,58,59,61,70,71,77,78,80,86,88,91,92,97</t>
         </is>
@@ -2038,450 +2130,457 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="5" max="11"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="F2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>11,62</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="F3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>12,63</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>198</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="F4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>12,44,63,95</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>186</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="F5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>12,50,63,101</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>186</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="F6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>12,50,63,101</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:25</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>194</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="F7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>12,46,63,97</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>194</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="F8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>12,46,63,97</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="F9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>12,48,63,99</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.0392</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="F10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>12,47,63,98</t>
         </is>
@@ -2504,450 +2603,457 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="5" max="11"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>671</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>2,6,10,11,23,53,57,61,62,74</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>671</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>2,6,10,11,23,53,57,61,62,74</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>2,6,10,11,27,49,53,57,61,62,78,100</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>736</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>2,5,9,12,20,49,53,56,60,63,71,100</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>736</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>2,5,9,12,20,49,53,56,60,63,71,100</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.098</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>683</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>2,5,10,11,18,53,56,61,62,69</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>726</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>2,5,10,13,21,51,53,56,61,64,72,102</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.098</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>663</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>2,6,12,15,21,53,57,63,66,72</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.1176</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>724</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>2,6,11,15,20,49,53,57,62,66,71,100</t>
         </is>
@@ -2970,450 +3076,457 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" style="3" min="5" max="11"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Antal_produkter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Antal_egna</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Andel_egna</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Poängsumma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Söder Tackle</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Eastfield Lures</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Söder Sportfiske</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>VATN</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Troutland</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>ANGLRS</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Placeringar</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2025-08-12 11:29</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="6" t="n">
         <v>1445</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="n">
+      <c r="G2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,9,13,23,25,33,52,53,55,56,58,59,60,64,74,76,84</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2025-08-13 17:01</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="6" t="n">
         <v>1441</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="G3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>1,2,4,5,6,8,9,13,23,24,37,52,53,55,56,57,59,60,64,74,75,88</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2025-08-18 09:59</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="6" t="n">
         <v>1435</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="G4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>1,2,4,6,7,8,9,12,22,27,37,52,53,55,57,58,59,60,63,73,78,88</t>
         </is>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2025-08-19 09:24</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="6" t="n">
         <v>1407</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="G5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,10,12,26,33,41,52,53,55,56,58,59,61,63,77,84,92</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2025-08-20 07:16</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="6" t="n">
         <v>1407</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,10,12,26,33,41,52,53,55,56,58,59,61,63,77,84,92</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>2025-08-21 07:26</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>1363</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>1,2,4,5,7,8,15,17,30,37,45,52,53,55,56,58,59,66,68,81,88,96</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>2025-08-22 07:25</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="7" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>1319</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>1,2,5,6,7,8,17,18,39,42,48,52,53,56,57,58,59,68,69,90,93,99</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>2025-08-23 07:14</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.1961</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>1256</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>1,2,4,6,7,8,17,18,40,44,52,53,55,57,58,59,68,69,91,95</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>2025-08-24 07:15</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.2157</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>1313</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>1,2,4,6,7,9,17,22,34,45,49,52,53,55,57,58,60,68,73,85,96,100</t>
         </is>
@@ -3422,4 +3535,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24275334-D037-4774-9FDE-F5967802B3ED}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB21E6B-15DB-4CE1-AAD4-FF43286600DE}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F85D50E-FB60-42A0-B609-541BC5047111}"/>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,6 +781,22 @@
       </c>
       <c r="D15" s="3" t="n">
         <v>14144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>52535398</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2328</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15360</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +864,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,6 +918,16 @@
         <v>1939</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-25 04:20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -913,7 +939,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1083,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1068,7 +1106,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1322,43 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:23</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Newegg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,7 +1370,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,6 +1715,37 @@
         <v>1313</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1629</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E11" t="n">
+        <v>184</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G11" t="n">
+        <v>726</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1651,7 +1757,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,6 +2219,48 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1629</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1,2,7,8,9,19,20,25,27,31,35,37,39,43,45,52,53,58,59,60,70,71,76,78,82,86,88,90,94,96</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2124,7 +2272,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2586,6 +2734,48 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="E11" t="n">
+        <v>184</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>14,49,65,100</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2597,7 +2787,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3059,6 +3249,48 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="E11" t="n">
+        <v>726</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2,5,12,15,17,51,53,56,63,66,68,102</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3070,7 +3302,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3532,240 +3764,49 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:19</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2157</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1321</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1,2,3,5,6,9,17,22,35,44,48,52,53,54,56,57,60,68,73,86,95,99</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24275334-D037-4774-9FDE-F5967802B3ED}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB21E6B-15DB-4CE1-AAD4-FF43286600DE}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F85D50E-FB60-42A0-B609-541BC5047111}"/>
 </file>